--- a/data/cleaned/ballon-d-or.xlsx
+++ b/data/cleaned/ballon-d-or.xlsx
@@ -12,539 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>rank</t>
-  </si>
-  <si>
-    <t>player</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>points</t>
-  </si>
-  <si>
-    <t>percentages</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>Stanley Matthews</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>Alfredo Di Stéfano</t>
-  </si>
-  <si>
-    <t>Real Madrid</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>Raymond Kopa</t>
-  </si>
-  <si>
-    <t>Billy Wright</t>
-  </si>
-  <si>
-    <t>Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t>Duncan Edwards</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Helmut Rahn</t>
-  </si>
-  <si>
-    <t>Rot-Weiss Essen</t>
-  </si>
-  <si>
-    <t>Just Fontaine</t>
-  </si>
-  <si>
-    <t>Stade de Reims</t>
-  </si>
-  <si>
-    <t>John Charles</t>
-  </si>
-  <si>
-    <t>Juventus</t>
-  </si>
-  <si>
-    <t>Luis Suárez</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
-    <t>Ferenc Puskás</t>
-  </si>
-  <si>
-    <t>Uwe Seeler</t>
-  </si>
-  <si>
-    <t>Hamburg</t>
-  </si>
-  <si>
-    <t>Omar Sívori</t>
-  </si>
-  <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
-    <t>Johnny Haynes</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
-    <t>Josef Masopust</t>
-  </si>
-  <si>
-    <t>Dukla Prague</t>
-  </si>
-  <si>
-    <t>Eusébio</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Karl-Heinz Schnellinger</t>
-  </si>
-  <si>
-    <t>Köln</t>
-  </si>
-  <si>
-    <t>Lev Yashin</t>
-  </si>
-  <si>
-    <t>Dynamo Moscow</t>
-  </si>
-  <si>
-    <t>Gianni Rivera</t>
-  </si>
-  <si>
-    <t>Milan</t>
-  </si>
-  <si>
-    <t>Jimmy Greaves</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Denis Law</t>
-  </si>
-  <si>
-    <t>Amancio</t>
-  </si>
-  <si>
-    <t>Giacinto Facchetti</t>
-  </si>
-  <si>
-    <t>Bobby Charlton</t>
-  </si>
-  <si>
-    <t>Franz Beckenbauer</t>
-  </si>
-  <si>
-    <t>Bayern Munich</t>
-  </si>
-  <si>
-    <t>Flórián Albert</t>
-  </si>
-  <si>
-    <t>Ferencváros</t>
-  </si>
-  <si>
-    <t>Jimmy Johnstone</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>George Best</t>
-  </si>
-  <si>
-    <t>Dragan Džajić</t>
-  </si>
-  <si>
-    <t>Red Star Belgrade</t>
-  </si>
-  <si>
-    <t>Luigi Riva</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Gerd Müller</t>
-  </si>
-  <si>
-    <t>Bobby Moore</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Johan Cruyff</t>
-  </si>
-  <si>
-    <t>Ajax</t>
-  </si>
-  <si>
-    <t>Sandro Mazzola</t>
-  </si>
-  <si>
-    <t>Günter Netzer</t>
-  </si>
-  <si>
-    <t>Borussia Mönchengladbach</t>
-  </si>
-  <si>
-    <t>Dino Zoff</t>
-  </si>
-  <si>
-    <t>Kazimierz Deyna</t>
-  </si>
-  <si>
-    <t>Legia Warsaw</t>
-  </si>
-  <si>
-    <t>Oleg Blokhin</t>
-  </si>
-  <si>
-    <t>Dynamo Kyiv</t>
-  </si>
-  <si>
-    <t>Rob Rensenbrink</t>
-  </si>
-  <si>
-    <t>Anderlecht</t>
-  </si>
-  <si>
-    <t>Ivo Viktor</t>
-  </si>
-  <si>
-    <t>Allan Simonsen</t>
-  </si>
-  <si>
-    <t>Kevin Keegan</t>
-  </si>
-  <si>
-    <t>Michel Platini</t>
-  </si>
-  <si>
-    <t>Nancy</t>
-  </si>
-  <si>
-    <t>Hans Krankl</t>
-  </si>
-  <si>
-    <t>Karl-Heinz Rummenigge</t>
-  </si>
-  <si>
-    <t>Ruud Krol</t>
-  </si>
-  <si>
-    <t>Bernd Schuster</t>
-  </si>
-  <si>
-    <t>Saint-Étienne</t>
-  </si>
-  <si>
-    <t>Paul Breitner</t>
-  </si>
-  <si>
-    <t>Paolo Rossi</t>
-  </si>
-  <si>
-    <t>Alain Giresse</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Zbigniew Boniek</t>
-  </si>
-  <si>
-    <t>Kenny Dalglish</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Vejle</t>
-  </si>
-  <si>
-    <t>Jean Tigana</t>
-  </si>
-  <si>
-    <t>Preben Elkjær</t>
-  </si>
-  <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Igor Belanov</t>
-  </si>
-  <si>
-    <t>Gary Lineker</t>
-  </si>
-  <si>
-    <t>Emilio Butragueño</t>
-  </si>
-  <si>
-    <t>Ruud Gullit</t>
-  </si>
-  <si>
-    <t>Paulo Futre</t>
-  </si>
-  <si>
-    <t>Atlético Madrid</t>
-  </si>
-  <si>
-    <t>Marco van Basten</t>
-  </si>
-  <si>
-    <t>Frank Rijkaard</t>
-  </si>
-  <si>
-    <t>Franco Baresi</t>
-  </si>
-  <si>
-    <t>Lothar Matthäus</t>
-  </si>
-  <si>
-    <t>Salvatore Schillaci</t>
-  </si>
-  <si>
-    <t>Andreas Brehme</t>
-  </si>
-  <si>
-    <t>Jean-Pierre Papin</t>
-  </si>
-  <si>
-    <t>Marseille</t>
-  </si>
-  <si>
-    <t>Dejan Savićević</t>
-  </si>
-  <si>
-    <t>Darko Pančev</t>
-  </si>
-  <si>
-    <t>Hristo Stoichkov</t>
-  </si>
-  <si>
-    <t>Dennis Bergkamp</t>
-  </si>
-  <si>
-    <t>Roberto Baggio</t>
-  </si>
-  <si>
-    <t>Eric Cantona</t>
-  </si>
-  <si>
-    <t>Paolo Maldini</t>
-  </si>
-  <si>
-    <t>George Weah</t>
-  </si>
-  <si>
-    <t>Jürgen Klinsmann</t>
-  </si>
-  <si>
-    <t>Jari Litmanen</t>
-  </si>
-  <si>
-    <t>Matthias Sammer</t>
-  </si>
-  <si>
-    <t>Borussia Dortmund</t>
-  </si>
-  <si>
-    <t>Ronaldo</t>
-  </si>
-  <si>
-    <t>Alan Shearer</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Predrag Mijatović</t>
-  </si>
-  <si>
-    <t>Zinedine Zidane</t>
-  </si>
-  <si>
-    <t>Davor Šuker</t>
-  </si>
-  <si>
-    <t>Rivaldo</t>
-  </si>
-  <si>
-    <t>David Beckham</t>
-  </si>
-  <si>
-    <t>Andriy Shevchenko</t>
-  </si>
-  <si>
-    <t>Luís Figo</t>
-  </si>
-  <si>
-    <t>Michael Owen</t>
-  </si>
-  <si>
-    <t>Raúl</t>
-  </si>
-  <si>
-    <t>Oliver Kahn</t>
-  </si>
-  <si>
-    <t>Roberto Carlos</t>
-  </si>
-  <si>
-    <t>Pavel Nedvěd</t>
-  </si>
-  <si>
-    <t>Thierry Henry</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Deco</t>
-  </si>
-  <si>
-    <t>Ronaldinho</t>
-  </si>
-  <si>
-    <t>Frank Lampard</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Steven Gerrard</t>
-  </si>
-  <si>
-    <t>Fabio Cannavaro</t>
-  </si>
-  <si>
-    <t>Gianluigi Buffon</t>
-  </si>
-  <si>
-    <t>Kaká</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo</t>
-  </si>
-  <si>
-    <t>Lionel Messi</t>
-  </si>
-  <si>
-    <t>Fernando Torres</t>
-  </si>
-  <si>
-    <t>Xavi</t>
-  </si>
-  <si>
-    <t>22.65</t>
-  </si>
-  <si>
-    <t>Andrés Iniesta</t>
-  </si>
-  <si>
-    <t>17.36</t>
-  </si>
-  <si>
-    <t>16.48</t>
-  </si>
-  <si>
-    <t>47.88</t>
-  </si>
-  <si>
-    <t>21.60</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>41.60</t>
-  </si>
-  <si>
-    <t>23.68</t>
-  </si>
-  <si>
-    <t>10.91</t>
-  </si>
-  <si>
-    <t>27.99</t>
-  </si>
-  <si>
-    <t>24.72</t>
-  </si>
-  <si>
-    <t>Franck Ribéry</t>
-  </si>
-  <si>
-    <t>23.36</t>
-  </si>
-  <si>
-    <t>37.66</t>
-  </si>
-  <si>
-    <t>15.76</t>
-  </si>
-  <si>
-    <t>Manuel Neuer</t>
-  </si>
-  <si>
-    <t>15.72</t>
-  </si>
-  <si>
-    <t>41.33</t>
-  </si>
-  <si>
-    <t>27.76</t>
-  </si>
-  <si>
-    <t>Neymar</t>
-  </si>
-  <si>
-    <t>7.86</t>
-  </si>
-  <si>
-    <t>Antoine Griezmann</t>
-  </si>
-  <si>
-    <t>Paris Saint-Germain</t>
-  </si>
-  <si>
-    <t>Luka Modrić</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -899,41 +366,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>player</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>points</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>percentages</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>1956</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Stanley Matthews</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Blackpool</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>47</v>
@@ -942,21 +427,27 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
         <v>1956</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Alfredo Di Stéfano</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>44</v>
@@ -965,21 +456,27 @@
         <v>35.48</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>1956</v>
       </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Raymond Kopa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>33</v>
@@ -988,21 +485,27 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>1957</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Alfredo Di Stéfano</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>72</v>
@@ -1011,21 +514,27 @@
         <v>58.54</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
         <v>1957</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Billy Wright</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>19</v>
@@ -1034,21 +543,27 @@
         <v>15.45</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
         <v>1957</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Duncan Edwards</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>16</v>
@@ -1057,21 +572,27 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
         <v>1957</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Raymond Kopa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>16</v>
@@ -1080,21 +601,27 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
         <v>1958</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Raymond Kopa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F9" t="n">
         <v>71</v>
@@ -1103,21 +630,27 @@
         <v>52.99</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
         <v>1958</v>
       </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Helmut Rahn</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Rot-Weiss Essen</t>
+        </is>
       </c>
       <c r="F10" t="n">
         <v>40</v>
@@ -1126,21 +659,27 @@
         <v>29.85</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
         <v>1958</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>21</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Just Fontaine</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Stade de Reims</t>
+        </is>
       </c>
       <c r="F11" t="n">
         <v>23</v>
@@ -1149,21 +688,27 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
         <v>1959</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Alfredo Di Stéfano</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F12" t="n">
         <v>80</v>
@@ -1172,21 +717,27 @@
         <v>54.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>1959</v>
       </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Raymond Kopa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Stade de Reims</t>
+        </is>
       </c>
       <c r="F13" t="n">
         <v>42</v>
@@ -1195,21 +746,27 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>1959</v>
       </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>John Charles</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F14" t="n">
         <v>24</v>
@@ -1218,21 +775,27 @@
         <v>16.44</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
         <v>1960</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" t="s">
-        <v>25</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Luis Suárez</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F15" t="n">
         <v>54</v>
@@ -1241,21 +804,27 @@
         <v>43.55</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
         <v>1960</v>
       </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Ferenc Puskás</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F16" t="n">
         <v>37</v>
@@ -1264,21 +833,27 @@
         <v>29.84</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
         <v>1960</v>
       </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Uwe Seeler</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
       </c>
       <c r="F17" t="n">
         <v>33</v>
@@ -1287,21 +862,27 @@
         <v>26.61</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
         <v>1961</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Omar Sívori</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F18" t="n">
         <v>46</v>
@@ -1310,21 +891,27 @@
         <v>42.59</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
         <v>1961</v>
       </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>30</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Luis Suárez</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F19" t="n">
         <v>40</v>
@@ -1333,21 +920,27 @@
         <v>37.04</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>1961</v>
       </c>
-      <c r="C20" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>32</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Johnny Haynes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
       </c>
       <c r="F20" t="n">
         <v>22</v>
@@ -1356,21 +949,27 @@
         <v>20.37</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
         <v>1962</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Josef Masopust</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
       </c>
       <c r="F21" t="n">
         <v>65</v>
@@ -1379,21 +978,27 @@
         <v>43.05</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
         <v>1962</v>
       </c>
-      <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Eusébio</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
       <c r="F22" t="n">
         <v>53</v>
@@ -1402,21 +1007,27 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
         <v>1962</v>
       </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Karl-Heinz Schnellinger</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Köln</t>
+        </is>
       </c>
       <c r="F23" t="n">
         <v>33</v>
@@ -1425,90 +1036,114 @@
         <v>21.85</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>1963</v>
       </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" t="s">
-        <v>40</v>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Lev Yashin</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Dynamo Moscow</t>
+        </is>
       </c>
       <c r="F24" t="n">
         <v>73</v>
       </c>
       <c r="G24" t="n">
-        <v>45.91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>1963</v>
       </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" t="s">
-        <v>42</v>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Gianni Rivera</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F25" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G25" t="n">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>1963</v>
       </c>
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Jimmy Greaves</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Tottenham Hotspur</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>20.75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>28.09</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>1964</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Denis Law</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F27" t="n">
         <v>61</v>
@@ -1517,21 +1152,27 @@
         <v>42.96</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>1964</v>
       </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>30</v>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Luis Suárez</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F28" t="n">
         <v>43</v>
@@ -1540,21 +1181,27 @@
         <v>30.28</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>1964</v>
       </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Amancio</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F29" t="n">
         <v>38</v>
@@ -1563,21 +1210,27 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>1965</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" t="s">
-        <v>36</v>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Eusébio</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
       <c r="F30" t="n">
         <v>67</v>
@@ -1586,21 +1239,27 @@
         <v>39.18</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>1965</v>
       </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" t="s">
-        <v>30</v>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Giacinto Facchetti</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F31" t="n">
         <v>59</v>
@@ -1609,21 +1268,27 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>1965</v>
       </c>
-      <c r="C32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Luis Suárez</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F32" t="n">
         <v>45</v>
@@ -1632,21 +1297,27 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>1966</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Bobby Charlton</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F33" t="n">
         <v>81</v>
@@ -1655,21 +1326,27 @@
         <v>36.82</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>1966</v>
       </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" t="s">
-        <v>36</v>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Eusébio</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
       <c r="F34" t="n">
         <v>80</v>
@@ -1678,21 +1355,27 @@
         <v>36.36</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>1966</v>
       </c>
-      <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" t="s">
-        <v>50</v>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Franz Beckenbauer</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F35" t="n">
         <v>59</v>
@@ -1701,21 +1384,27 @@
         <v>26.82</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>1967</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Flórián Albert</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ferencváros</t>
+        </is>
       </c>
       <c r="F36" t="n">
         <v>68</v>
@@ -1724,21 +1413,27 @@
         <v>46.26</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>1967</v>
       </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Bobby Charlton</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F37" t="n">
         <v>40</v>
@@ -1747,21 +1442,27 @@
         <v>27.21</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>1967</v>
       </c>
-      <c r="C38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" t="s">
-        <v>54</v>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Jimmy Johnstone</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Celtic</t>
+        </is>
       </c>
       <c r="F38" t="n">
         <v>39</v>
@@ -1770,21 +1471,27 @@
         <v>26.53</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>1968</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E39" t="s">
-        <v>17</v>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>George Best</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F39" t="n">
         <v>61</v>
@@ -1793,21 +1500,27 @@
         <v>38.12</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
         <v>1968</v>
       </c>
-      <c r="C40" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" t="s">
-        <v>17</v>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Bobby Charlton</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F40" t="n">
         <v>53</v>
@@ -1816,21 +1529,27 @@
         <v>33.12</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
         <v>1968</v>
       </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" t="s">
-        <v>57</v>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Dragan Džajić</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
       </c>
       <c r="F41" t="n">
         <v>46</v>
@@ -1839,21 +1558,27 @@
         <v>28.75</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
         <v>1969</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>42</v>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Gianni Rivera</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F42" t="n">
         <v>83</v>
@@ -1862,21 +1587,27 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
         <v>1969</v>
       </c>
-      <c r="C43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" t="s">
-        <v>59</v>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Luigi Riva</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
       </c>
       <c r="F43" t="n">
         <v>79</v>
@@ -1885,21 +1616,27 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
         <v>1969</v>
       </c>
-      <c r="C44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" t="s">
-        <v>60</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Gerd Müller</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F44" t="n">
         <v>38</v>
@@ -1908,21 +1645,27 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
         <v>1970</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Gerd Müller</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F45" t="n">
         <v>77</v>
@@ -1931,21 +1674,27 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
         <v>1970</v>
       </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" t="s">
-        <v>62</v>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Bobby Moore</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>West Ham United</t>
+        </is>
       </c>
       <c r="F46" t="n">
         <v>70</v>
@@ -1954,21 +1703,27 @@
         <v>33.02</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
         <v>1970</v>
       </c>
-      <c r="C47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" t="s">
-        <v>59</v>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Luigi Riva</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
       </c>
       <c r="F47" t="n">
         <v>65</v>
@@ -1977,21 +1732,27 @@
         <v>30.66</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
         <v>1971</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E48" t="s">
-        <v>64</v>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Johan Cruyff</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
       </c>
       <c r="F48" t="n">
         <v>116</v>
@@ -2000,21 +1761,27 @@
         <v>50.66</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
         <v>1971</v>
       </c>
-      <c r="C49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" t="s">
-        <v>30</v>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sandro Mazzola</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F49" t="n">
         <v>57</v>
@@ -2023,21 +1790,27 @@
         <v>24.89</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
         <v>1971</v>
       </c>
-      <c r="C50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>George Best</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F50" t="n">
         <v>56</v>
@@ -2046,21 +1819,27 @@
         <v>24.45</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
         <v>1972</v>
       </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" t="s">
-        <v>49</v>
-      </c>
-      <c r="E51" t="s">
-        <v>50</v>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Franz Beckenbauer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F51" t="n">
         <v>81</v>
@@ -2069,21 +1848,27 @@
         <v>33.89</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
         <v>1972</v>
       </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" t="s">
-        <v>50</v>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Gerd Müller</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F52" t="n">
         <v>79</v>
@@ -2092,21 +1877,27 @@
         <v>33.05</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
         <v>1972</v>
       </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="s">
-        <v>66</v>
-      </c>
-      <c r="E53" t="s">
-        <v>67</v>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Günter Netzer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
       </c>
       <c r="F53" t="n">
         <v>79</v>
@@ -2115,21 +1906,27 @@
         <v>33.05</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
         <v>1973</v>
       </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E54" t="s">
-        <v>25</v>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Johan Cruyff</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F54" t="n">
         <v>96</v>
@@ -2138,21 +1935,27 @@
         <v>51.34</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
         <v>1973</v>
       </c>
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
-        <v>68</v>
-      </c>
-      <c r="E55" t="s">
-        <v>23</v>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Dino Zoff</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F55" t="n">
         <v>47</v>
@@ -2161,21 +1964,27 @@
         <v>25.13</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
         <v>1973</v>
       </c>
-      <c r="C56" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E56" t="s">
-        <v>50</v>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Gerd Müller</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F56" t="n">
         <v>44</v>
@@ -2184,21 +1993,27 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
         <v>1974</v>
       </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>63</v>
-      </c>
-      <c r="E57" t="s">
-        <v>25</v>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Johan Cruyff</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F57" t="n">
         <v>116</v>
@@ -2207,21 +2022,27 @@
         <v>45.31</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
         <v>1974</v>
       </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" t="s">
-        <v>50</v>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Franz Beckenbauer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F58" t="n">
         <v>105</v>
@@ -2230,21 +2051,27 @@
         <v>41.02</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
         <v>1974</v>
       </c>
-      <c r="C59" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" t="s">
-        <v>70</v>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Kazimierz Deyna</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Legia Warsaw</t>
+        </is>
       </c>
       <c r="F59" t="n">
         <v>35</v>
@@ -2253,21 +2080,27 @@
         <v>13.67</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
         <v>1975</v>
       </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>71</v>
-      </c>
-      <c r="E60" t="s">
-        <v>72</v>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Oleg Blokhin</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Dynamo Kyiv</t>
+        </is>
       </c>
       <c r="F60" t="n">
         <v>122</v>
@@ -2276,21 +2109,27 @@
         <v>63.87</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
         <v>1975</v>
       </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" t="s">
-        <v>50</v>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Franz Beckenbauer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F61" t="n">
         <v>42</v>
@@ -2299,21 +2138,27 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
         <v>1975</v>
       </c>
-      <c r="C62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E62" t="s">
-        <v>25</v>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Johan Cruyff</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F62" t="n">
         <v>27</v>
@@ -2322,21 +2167,27 @@
         <v>14.14</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
         <v>1976</v>
       </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" t="s">
-        <v>50</v>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Franz Beckenbauer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F63" t="n">
         <v>91</v>
@@ -2345,21 +2196,27 @@
         <v>41.74</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
         <v>1976</v>
       </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="s">
-        <v>73</v>
-      </c>
-      <c r="E64" t="s">
-        <v>74</v>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Rob Rensenbrink</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
       </c>
       <c r="F64" t="n">
         <v>75</v>
@@ -2368,21 +2225,27 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
         <v>1976</v>
       </c>
-      <c r="C65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" t="s">
-        <v>34</v>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Ivo Viktor</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Dukla Prague</t>
+        </is>
       </c>
       <c r="F65" t="n">
         <v>52</v>
@@ -2391,21 +2254,27 @@
         <v>23.85</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
         <v>1977</v>
       </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>76</v>
-      </c>
-      <c r="E66" t="s">
-        <v>67</v>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Allan Simonsen</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Borussia Mönchengladbach</t>
+        </is>
       </c>
       <c r="F66" t="n">
         <v>74</v>
@@ -2414,21 +2283,27 @@
         <v>34.42</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
         <v>1977</v>
       </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" t="s">
-        <v>28</v>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Kevin Keegan</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
       </c>
       <c r="F67" t="n">
         <v>71</v>
@@ -2437,21 +2312,27 @@
         <v>33.02</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
         <v>1977</v>
       </c>
-      <c r="C68" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" t="s">
-        <v>79</v>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Michel Platini</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Nancy</t>
+        </is>
       </c>
       <c r="F68" t="n">
         <v>70</v>
@@ -2460,21 +2341,27 @@
         <v>32.56</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
         <v>1978</v>
       </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69" t="s">
-        <v>28</v>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Kevin Keegan</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
       </c>
       <c r="F69" t="n">
         <v>87</v>
@@ -2483,21 +2370,27 @@
         <v>39.91</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
         <v>1978</v>
       </c>
-      <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>80</v>
-      </c>
-      <c r="E70" t="s">
-        <v>25</v>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Hans Krankl</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F70" t="n">
         <v>81</v>
@@ -2506,21 +2399,27 @@
         <v>37.16</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
         <v>1978</v>
       </c>
-      <c r="C71" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" t="s">
-        <v>73</v>
-      </c>
-      <c r="E71" t="s">
-        <v>74</v>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Rob Rensenbrink</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Anderlecht</t>
+        </is>
       </c>
       <c r="F71" t="n">
         <v>50</v>
@@ -2529,21 +2428,27 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
         <v>1979</v>
       </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" t="s">
-        <v>28</v>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Kevin Keegan</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Hamburg</t>
+        </is>
       </c>
       <c r="F72" t="n">
         <v>118</v>
@@ -2552,21 +2457,27 @@
         <v>55.92</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
         <v>1979</v>
       </c>
-      <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>81</v>
-      </c>
-      <c r="E73" t="s">
-        <v>50</v>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Karl-Heinz Rummenigge</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F73" t="n">
         <v>52</v>
@@ -2575,21 +2486,27 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
         <v>1979</v>
       </c>
-      <c r="C74" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" t="s">
-        <v>82</v>
-      </c>
-      <c r="E74" t="s">
-        <v>64</v>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Ruud Krol</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
       </c>
       <c r="F74" t="n">
         <v>41</v>
@@ -2598,21 +2515,27 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
         <v>1980</v>
       </c>
-      <c r="C75" t="s">
-        <v>6</v>
-      </c>
-      <c r="D75" t="s">
-        <v>81</v>
-      </c>
-      <c r="E75" t="s">
-        <v>50</v>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Karl-Heinz Rummenigge</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F75" t="n">
         <v>122</v>
@@ -2621,21 +2544,27 @@
         <v>64.55</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
         <v>1980</v>
       </c>
-      <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>83</v>
-      </c>
-      <c r="E76" t="s">
-        <v>25</v>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Bernd Schuster</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F76" t="n">
         <v>34</v>
@@ -2644,21 +2573,27 @@
         <v>17.99</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
         <v>1980</v>
       </c>
-      <c r="C77" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" t="s">
-        <v>78</v>
-      </c>
-      <c r="E77" t="s">
-        <v>84</v>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Michel Platini</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Saint-Étienne</t>
+        </is>
       </c>
       <c r="F77" t="n">
         <v>33</v>
@@ -2667,21 +2602,27 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
         <v>1981</v>
       </c>
-      <c r="C78" t="s">
-        <v>6</v>
-      </c>
-      <c r="D78" t="s">
-        <v>81</v>
-      </c>
-      <c r="E78" t="s">
-        <v>50</v>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Karl-Heinz Rummenigge</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F78" t="n">
         <v>106</v>
@@ -2690,21 +2631,27 @@
         <v>50.72</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
         <v>1981</v>
       </c>
-      <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" t="s">
-        <v>50</v>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Paul Breitner</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F79" t="n">
         <v>64</v>
@@ -2713,21 +2660,27 @@
         <v>30.62</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
         <v>1981</v>
       </c>
-      <c r="C80" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" t="s">
-        <v>25</v>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Bernd Schuster</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F80" t="n">
         <v>39</v>
@@ -2736,21 +2689,27 @@
         <v>18.66</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
         <v>1982</v>
       </c>
-      <c r="C81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" t="s">
-        <v>86</v>
-      </c>
-      <c r="E81" t="s">
-        <v>23</v>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Paolo Rossi</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F81" t="n">
         <v>115</v>
@@ -2759,21 +2718,27 @@
         <v>52.75</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
         <v>1982</v>
       </c>
-      <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" t="s">
-        <v>87</v>
-      </c>
-      <c r="E82" t="s">
-        <v>88</v>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Alain Giresse</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
       </c>
       <c r="F82" t="n">
         <v>64</v>
@@ -2782,21 +2747,27 @@
         <v>29.36</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
         <v>1982</v>
       </c>
-      <c r="C83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" t="s">
-        <v>89</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Zbigniew Boniek</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F83" t="n">
         <v>39</v>
@@ -2805,21 +2776,27 @@
         <v>17.89</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
         <v>1983</v>
       </c>
-      <c r="C84" t="s">
-        <v>6</v>
-      </c>
-      <c r="D84" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Michel Platini</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F84" t="n">
         <v>110</v>
@@ -2828,21 +2805,27 @@
         <v>68.31999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
         <v>1983</v>
       </c>
-      <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>90</v>
-      </c>
-      <c r="E85" t="s">
-        <v>91</v>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kenny Dalglish</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
       </c>
       <c r="F85" t="n">
         <v>26</v>
@@ -2851,21 +2834,27 @@
         <v>16.15</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
         <v>1983</v>
       </c>
-      <c r="C86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" t="s">
-        <v>76</v>
-      </c>
-      <c r="E86" t="s">
-        <v>92</v>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Allan Simonsen</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
       </c>
       <c r="F86" t="n">
         <v>25</v>
@@ -2874,21 +2863,27 @@
         <v>15.53</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
         <v>1984</v>
       </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" t="s">
-        <v>23</v>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Michel Platini</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F87" t="n">
         <v>110</v>
@@ -2897,21 +2892,27 @@
         <v>51.16</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
         <v>1984</v>
       </c>
-      <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="s">
-        <v>93</v>
-      </c>
-      <c r="E88" t="s">
-        <v>88</v>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Jean Tigana</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Bordeaux</t>
+        </is>
       </c>
       <c r="F88" t="n">
         <v>57</v>
@@ -2920,21 +2921,27 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
         <v>1984</v>
       </c>
-      <c r="C89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" t="s">
-        <v>94</v>
-      </c>
-      <c r="E89" t="s">
-        <v>95</v>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Preben Elkjær</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
       </c>
       <c r="F89" t="n">
         <v>48</v>
@@ -2943,21 +2950,27 @@
         <v>22.33</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
         <v>1985</v>
       </c>
-      <c r="C90" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" t="s">
-        <v>78</v>
-      </c>
-      <c r="E90" t="s">
-        <v>23</v>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Michel Platini</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F90" t="n">
         <v>127</v>
@@ -2966,21 +2979,27 @@
         <v>52.05</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
         <v>1985</v>
       </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" t="s">
-        <v>94</v>
-      </c>
-      <c r="E91" t="s">
-        <v>95</v>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Preben Elkjær</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
       </c>
       <c r="F91" t="n">
         <v>71</v>
@@ -2989,21 +3008,27 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
         <v>1985</v>
       </c>
-      <c r="C92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" t="s">
-        <v>83</v>
-      </c>
-      <c r="E92" t="s">
-        <v>25</v>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Bernd Schuster</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F92" t="n">
         <v>46</v>
@@ -3012,21 +3037,27 @@
         <v>18.85</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
         <v>1986</v>
       </c>
-      <c r="C93" t="s">
-        <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>96</v>
-      </c>
-      <c r="E93" t="s">
-        <v>72</v>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Igor Belanov</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Dynamo Kyiv</t>
+        </is>
       </c>
       <c r="F93" t="n">
         <v>84</v>
@@ -3035,21 +3066,27 @@
         <v>40.98</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
         <v>1986</v>
       </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" t="s">
-        <v>97</v>
-      </c>
-      <c r="E94" t="s">
-        <v>25</v>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Gary Lineker</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F94" t="n">
         <v>62</v>
@@ -3058,21 +3095,27 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
         <v>1986</v>
       </c>
-      <c r="C95" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" t="s">
-        <v>98</v>
-      </c>
-      <c r="E95" t="s">
-        <v>11</v>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Emilio Butragueño</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F95" t="n">
         <v>59</v>
@@ -3081,21 +3124,27 @@
         <v>28.78</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
         <v>1987</v>
       </c>
-      <c r="C96" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" t="s">
-        <v>99</v>
-      </c>
-      <c r="E96" t="s">
-        <v>42</v>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Ruud Gullit</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F96" t="n">
         <v>106</v>
@@ -3104,21 +3153,27 @@
         <v>41.09</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
         <v>1987</v>
       </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" t="s">
-        <v>100</v>
-      </c>
-      <c r="E97" t="s">
-        <v>101</v>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Paulo Futre</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
       </c>
       <c r="F97" t="n">
         <v>91</v>
@@ -3127,21 +3182,27 @@
         <v>35.27</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
         <v>1987</v>
       </c>
-      <c r="C98" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" t="s">
-        <v>98</v>
-      </c>
-      <c r="E98" t="s">
-        <v>11</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Emilio Butragueño</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F98" t="n">
         <v>61</v>
@@ -3150,21 +3211,27 @@
         <v>23.64</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
         <v>1988</v>
       </c>
-      <c r="C99" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" t="s">
-        <v>42</v>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Marco van Basten</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F99" t="n">
         <v>129</v>
@@ -3173,21 +3240,27 @@
         <v>49.24</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
         <v>1988</v>
       </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" t="s">
-        <v>99</v>
-      </c>
-      <c r="E100" t="s">
-        <v>42</v>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Ruud Gullit</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F100" t="n">
         <v>88</v>
@@ -3196,21 +3269,27 @@
         <v>33.59</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
         <v>1988</v>
       </c>
-      <c r="C101" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" t="s">
-        <v>103</v>
-      </c>
-      <c r="E101" t="s">
-        <v>42</v>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Frank Rijkaard</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F101" t="n">
         <v>45</v>
@@ -3219,21 +3298,27 @@
         <v>17.18</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
         <v>1989</v>
       </c>
-      <c r="C102" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" t="s">
-        <v>42</v>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Marco van Basten</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F102" t="n">
         <v>129</v>
@@ -3242,21 +3327,27 @@
         <v>51.19</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
         <v>1989</v>
       </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" t="s">
-        <v>104</v>
-      </c>
-      <c r="E103" t="s">
-        <v>42</v>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Franco Baresi</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F103" t="n">
         <v>80</v>
@@ -3265,21 +3356,27 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
         <v>1989</v>
       </c>
-      <c r="C104" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" t="s">
-        <v>103</v>
-      </c>
-      <c r="E104" t="s">
-        <v>42</v>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Frank Rijkaard</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F104" t="n">
         <v>43</v>
@@ -3288,21 +3385,27 @@
         <v>17.06</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
         <v>1990</v>
       </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>105</v>
-      </c>
-      <c r="E105" t="s">
-        <v>30</v>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Lothar Matthäus</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F105" t="n">
         <v>137</v>
@@ -3311,21 +3414,27 @@
         <v>47.4</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
         <v>1990</v>
       </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" t="s">
-        <v>106</v>
-      </c>
-      <c r="E106" t="s">
-        <v>23</v>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Salvatore Schillaci</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F106" t="n">
         <v>84</v>
@@ -3334,21 +3443,27 @@
         <v>29.07</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
         <v>1990</v>
       </c>
-      <c r="C107" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" t="s">
-        <v>107</v>
-      </c>
-      <c r="E107" t="s">
-        <v>30</v>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Andreas Brehme</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F107" t="n">
         <v>68</v>
@@ -3357,21 +3472,27 @@
         <v>23.53</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
         <v>1991</v>
       </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" t="s">
-        <v>108</v>
-      </c>
-      <c r="E108" t="s">
-        <v>109</v>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Jean-Pierre Papin</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Marseille</t>
+        </is>
       </c>
       <c r="F108" t="n">
         <v>141</v>
@@ -3380,21 +3501,27 @@
         <v>52.81</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
         <v>1991</v>
       </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" t="s">
-        <v>110</v>
-      </c>
-      <c r="E109" t="s">
-        <v>57</v>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Dejan Savićević</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
       </c>
       <c r="F109" t="n">
         <v>42</v>
@@ -3403,21 +3530,27 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
         <v>1991</v>
       </c>
-      <c r="C110" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" t="s">
-        <v>111</v>
-      </c>
-      <c r="E110" t="s">
-        <v>57</v>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Darko Pančev</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Red Star Belgrade</t>
+        </is>
       </c>
       <c r="F110" t="n">
         <v>42</v>
@@ -3426,21 +3559,27 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
         <v>1991</v>
       </c>
-      <c r="C111" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" t="s">
-        <v>105</v>
-      </c>
-      <c r="E111" t="s">
-        <v>30</v>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Lothar Matthäus</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F111" t="n">
         <v>42</v>
@@ -3449,21 +3588,27 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
         <v>1992</v>
       </c>
-      <c r="C112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112" t="s">
-        <v>102</v>
-      </c>
-      <c r="E112" t="s">
-        <v>42</v>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Marco van Basten</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F112" t="n">
         <v>98</v>
@@ -3472,21 +3617,27 @@
         <v>42.42</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
         <v>1992</v>
       </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" t="s">
-        <v>112</v>
-      </c>
-      <c r="E113" t="s">
-        <v>25</v>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Hristo Stoichkov</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F113" t="n">
         <v>80</v>
@@ -3495,21 +3646,27 @@
         <v>34.63</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
         <v>1992</v>
       </c>
-      <c r="C114" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" t="s">
-        <v>64</v>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Dennis Bergkamp</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
       </c>
       <c r="F114" t="n">
         <v>53</v>
@@ -3518,21 +3675,27 @@
         <v>22.94</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
         <v>1993</v>
       </c>
-      <c r="C115" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" t="s">
-        <v>114</v>
-      </c>
-      <c r="E115" t="s">
-        <v>23</v>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Roberto Baggio</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F115" t="n">
         <v>142</v>
@@ -3541,21 +3704,27 @@
         <v>54.83</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
         <v>1993</v>
       </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" t="s">
-        <v>113</v>
-      </c>
-      <c r="E116" t="s">
-        <v>30</v>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Dennis Bergkamp</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F116" t="n">
         <v>83</v>
@@ -3564,21 +3733,27 @@
         <v>32.05</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
         <v>1993</v>
       </c>
-      <c r="C117" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" t="s">
-        <v>115</v>
-      </c>
-      <c r="E117" t="s">
-        <v>17</v>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Eric Cantona</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F117" t="n">
         <v>34</v>
@@ -3587,21 +3762,27 @@
         <v>13.13</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
         <v>1994</v>
       </c>
-      <c r="C118" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" t="s">
-        <v>112</v>
-      </c>
-      <c r="E118" t="s">
-        <v>25</v>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Hristo Stoichkov</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F118" t="n">
         <v>210</v>
@@ -3610,21 +3791,27 @@
         <v>46.15</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
         <v>1994</v>
       </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" t="s">
-        <v>114</v>
-      </c>
-      <c r="E119" t="s">
-        <v>23</v>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Roberto Baggio</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F119" t="n">
         <v>136</v>
@@ -3633,21 +3820,27 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
         <v>1994</v>
       </c>
-      <c r="C120" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" t="s">
-        <v>116</v>
-      </c>
-      <c r="E120" t="s">
-        <v>42</v>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Paolo Maldini</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F120" t="n">
         <v>109</v>
@@ -3656,21 +3849,27 @@
         <v>23.96</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
         <v>1995</v>
       </c>
-      <c r="C121" t="s">
-        <v>6</v>
-      </c>
-      <c r="D121" t="s">
-        <v>117</v>
-      </c>
-      <c r="E121" t="s">
-        <v>42</v>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>George Weah </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F121" t="n">
         <v>144</v>
@@ -3679,21 +3878,27 @@
         <v>45.14</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
         <v>1995</v>
       </c>
-      <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" t="s">
-        <v>118</v>
-      </c>
-      <c r="E122" t="s">
-        <v>50</v>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Jürgen Klinsmann</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F122" t="n">
         <v>108</v>
@@ -3702,21 +3907,27 @@
         <v>33.86</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
         <v>1995</v>
       </c>
-      <c r="C123" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" t="s">
-        <v>119</v>
-      </c>
-      <c r="E123" t="s">
-        <v>64</v>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Jari Litmanen</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
       </c>
       <c r="F123" t="n">
         <v>67</v>
@@ -3725,21 +3936,27 @@
         <v>21</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
         <v>1996</v>
       </c>
-      <c r="C124" t="s">
-        <v>6</v>
-      </c>
-      <c r="D124" t="s">
-        <v>120</v>
-      </c>
-      <c r="E124" t="s">
-        <v>121</v>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Matthias Sammer</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Borussia Dortmund</t>
+        </is>
       </c>
       <c r="F124" t="n">
         <v>144</v>
@@ -3748,21 +3965,27 @@
         <v>36.55</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
         <v>1996</v>
       </c>
-      <c r="C125" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" t="s">
-        <v>122</v>
-      </c>
-      <c r="E125" t="s">
-        <v>25</v>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Ronaldo</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F125" t="n">
         <v>143</v>
@@ -3771,21 +3994,27 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
         <v>1996</v>
       </c>
-      <c r="C126" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" t="s">
-        <v>123</v>
-      </c>
-      <c r="E126" t="s">
-        <v>124</v>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Alan Shearer</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Newcastle United</t>
+        </is>
       </c>
       <c r="F126" t="n">
         <v>107</v>
@@ -3794,21 +4023,27 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
         <v>1997</v>
       </c>
-      <c r="C127" t="s">
-        <v>6</v>
-      </c>
-      <c r="D127" t="s">
-        <v>122</v>
-      </c>
-      <c r="E127" t="s">
-        <v>30</v>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Ronaldo </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F127" t="n">
         <v>222</v>
@@ -3817,21 +4052,27 @@
         <v>62.89</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
         <v>1997</v>
       </c>
-      <c r="C128" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" t="s">
-        <v>125</v>
-      </c>
-      <c r="E128" t="s">
-        <v>11</v>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Predrag Mijatović</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F128" t="n">
         <v>68</v>
@@ -3840,21 +4081,27 @@
         <v>19.26</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
         <v>1997</v>
       </c>
-      <c r="C129" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" t="s">
-        <v>126</v>
-      </c>
-      <c r="E129" t="s">
-        <v>23</v>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Zinedine Zidane</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F129" t="n">
         <v>63</v>
@@ -3863,21 +4110,27 @@
         <v>17.85</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
         <v>1998</v>
       </c>
-      <c r="C130" t="s">
-        <v>6</v>
-      </c>
-      <c r="D130" t="s">
-        <v>126</v>
-      </c>
-      <c r="E130" t="s">
-        <v>23</v>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Zinedine Zidane</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F130" t="n">
         <v>244</v>
@@ -3886,21 +4139,27 @@
         <v>64.55</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
         <v>1998</v>
       </c>
-      <c r="C131" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" t="s">
-        <v>127</v>
-      </c>
-      <c r="E131" t="s">
-        <v>11</v>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Davor Šuker</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F131" t="n">
         <v>68</v>
@@ -3909,21 +4168,27 @@
         <v>17.99</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
         <v>1998</v>
       </c>
-      <c r="C132" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" t="s">
-        <v>122</v>
-      </c>
-      <c r="E132" t="s">
-        <v>30</v>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Ronaldo</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
       </c>
       <c r="F132" t="n">
         <v>66</v>
@@ -3932,21 +4197,27 @@
         <v>17.46</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
         <v>1999</v>
       </c>
-      <c r="C133" t="s">
-        <v>6</v>
-      </c>
-      <c r="D133" t="s">
-        <v>128</v>
-      </c>
-      <c r="E133" t="s">
-        <v>25</v>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Rivaldo</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F133" t="n">
         <v>219</v>
@@ -3955,21 +4226,27 @@
         <v>50.11</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
         <v>1999</v>
       </c>
-      <c r="C134" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" t="s">
-        <v>129</v>
-      </c>
-      <c r="E134" t="s">
-        <v>17</v>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>David Beckham</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F134" t="n">
         <v>154</v>
@@ -3978,21 +4255,27 @@
         <v>35.24</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
         <v>1999</v>
       </c>
-      <c r="C135" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" t="s">
-        <v>130</v>
-      </c>
-      <c r="E135" t="s">
-        <v>42</v>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Andriy Shevchenko</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F135" t="n">
         <v>64</v>
@@ -4001,21 +4284,27 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
         <v>2000</v>
       </c>
-      <c r="C136" t="s">
-        <v>6</v>
-      </c>
-      <c r="D136" t="s">
-        <v>131</v>
-      </c>
-      <c r="E136" t="s">
-        <v>11</v>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Luís Figo</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F136" t="n">
         <v>197</v>
@@ -4024,21 +4313,27 @@
         <v>42.55</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
         <v>2000</v>
       </c>
-      <c r="C137" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" t="s">
-        <v>126</v>
-      </c>
-      <c r="E137" t="s">
-        <v>23</v>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Zinedine Zidane</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F137" t="n">
         <v>181</v>
@@ -4047,21 +4342,27 @@
         <v>39.09</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
         <v>2000</v>
       </c>
-      <c r="C138" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" t="s">
-        <v>130</v>
-      </c>
-      <c r="E138" t="s">
-        <v>42</v>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Andriy Shevchenko</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F138" t="n">
         <v>85</v>
@@ -4070,21 +4371,27 @@
         <v>18.36</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
         <v>2001</v>
       </c>
-      <c r="C139" t="s">
-        <v>6</v>
-      </c>
-      <c r="D139" t="s">
-        <v>132</v>
-      </c>
-      <c r="E139" t="s">
-        <v>91</v>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Michael Owen</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
       </c>
       <c r="F139" t="n">
         <v>176</v>
@@ -4093,21 +4400,27 @@
         <v>40.93</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
         <v>2001</v>
       </c>
-      <c r="C140" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" t="s">
-        <v>133</v>
-      </c>
-      <c r="E140" t="s">
-        <v>11</v>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Raúl</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F140" t="n">
         <v>140</v>
@@ -4116,21 +4429,27 @@
         <v>32.56</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
         <v>2001</v>
       </c>
-      <c r="C141" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" t="s">
-        <v>134</v>
-      </c>
-      <c r="E141" t="s">
-        <v>50</v>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Oliver Kahn</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F141" t="n">
         <v>114</v>
@@ -4139,21 +4458,27 @@
         <v>26.51</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
         <v>2002</v>
       </c>
-      <c r="C142" t="s">
-        <v>6</v>
-      </c>
-      <c r="D142" t="s">
-        <v>122</v>
-      </c>
-      <c r="E142" t="s">
-        <v>11</v>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Ronaldo </t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F142" t="n">
         <v>169</v>
@@ -4162,21 +4487,27 @@
         <v>39.86</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
         <v>2002</v>
       </c>
-      <c r="C143" t="s">
-        <v>9</v>
-      </c>
-      <c r="D143" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" t="s">
-        <v>11</v>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Roberto Carlos</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F143" t="n">
         <v>145</v>
@@ -4185,21 +4516,27 @@
         <v>34.2</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
         <v>2002</v>
       </c>
-      <c r="C144" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" t="s">
-        <v>134</v>
-      </c>
-      <c r="E144" t="s">
-        <v>50</v>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Oliver Kahn</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
       </c>
       <c r="F144" t="n">
         <v>110</v>
@@ -4208,21 +4545,27 @@
         <v>25.94</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
         <v>2003</v>
       </c>
-      <c r="C145" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" t="s">
-        <v>136</v>
-      </c>
-      <c r="E145" t="s">
-        <v>23</v>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Pavel Nedvěd</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F145" t="n">
         <v>190</v>
@@ -4231,21 +4574,27 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
         <v>2003</v>
       </c>
-      <c r="C146" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" t="s">
-        <v>137</v>
-      </c>
-      <c r="E146" t="s">
-        <v>138</v>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
       </c>
       <c r="F146" t="n">
         <v>128</v>
@@ -4254,21 +4603,27 @@
         <v>29.02</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
         <v>2003</v>
       </c>
-      <c r="C147" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" t="s">
-        <v>116</v>
-      </c>
-      <c r="E147" t="s">
-        <v>42</v>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Paolo Maldini</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F147" t="n">
         <v>123</v>
@@ -4277,21 +4632,27 @@
         <v>27.89</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
         <v>2004</v>
       </c>
-      <c r="C148" t="s">
-        <v>6</v>
-      </c>
-      <c r="D148" t="s">
-        <v>130</v>
-      </c>
-      <c r="E148" t="s">
-        <v>42</v>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Andriy Shevchenko</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F148" t="n">
         <v>175</v>
@@ -4300,21 +4661,27 @@
         <v>39.15</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
         <v>2004</v>
       </c>
-      <c r="C149" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" t="s">
-        <v>139</v>
-      </c>
-      <c r="E149" t="s">
-        <v>25</v>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Deco</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F149" t="n">
         <v>139</v>
@@ -4323,21 +4690,27 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
         <v>2004</v>
       </c>
-      <c r="C150" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" t="s">
-        <v>25</v>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Ronaldinho</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F150" t="n">
         <v>133</v>
@@ -4346,21 +4719,27 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
         <v>2005</v>
       </c>
-      <c r="C151" t="s">
-        <v>6</v>
-      </c>
-      <c r="D151" t="s">
-        <v>140</v>
-      </c>
-      <c r="E151" t="s">
-        <v>25</v>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Ronaldinho</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F151" t="n">
         <v>225</v>
@@ -4369,21 +4748,27 @@
         <v>43.69</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
         <v>2005</v>
       </c>
-      <c r="C152" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" t="s">
-        <v>141</v>
-      </c>
-      <c r="E152" t="s">
-        <v>142</v>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Frank Lampard</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
       </c>
       <c r="F152" t="n">
         <v>148</v>
@@ -4392,21 +4777,27 @@
         <v>28.74</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
         <v>2005</v>
       </c>
-      <c r="C153" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" t="s">
-        <v>143</v>
-      </c>
-      <c r="E153" t="s">
-        <v>91</v>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Steven Gerrard</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
       </c>
       <c r="F153" t="n">
         <v>142</v>
@@ -4415,21 +4806,27 @@
         <v>27.57</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
         <v>2006</v>
       </c>
-      <c r="C154" t="s">
-        <v>6</v>
-      </c>
-      <c r="D154" t="s">
-        <v>144</v>
-      </c>
-      <c r="E154" t="s">
-        <v>11</v>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Fabio Cannavaro </t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F154" t="n">
         <v>173</v>
@@ -4438,21 +4835,27 @@
         <v>41.39</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
         <v>2006</v>
       </c>
-      <c r="C155" t="s">
-        <v>9</v>
-      </c>
-      <c r="D155" t="s">
-        <v>145</v>
-      </c>
-      <c r="E155" t="s">
-        <v>23</v>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Gianluigi Buffon</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F155" t="n">
         <v>124</v>
@@ -4461,21 +4864,27 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
         <v>2006</v>
       </c>
-      <c r="C156" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" t="s">
-        <v>138</v>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Thierry Henry</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
       </c>
       <c r="F156" t="n">
         <v>121</v>
@@ -4484,21 +4893,27 @@
         <v>28.95</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
         <v>2007</v>
       </c>
-      <c r="C157" t="s">
-        <v>6</v>
-      </c>
-      <c r="D157" t="s">
-        <v>146</v>
-      </c>
-      <c r="E157" t="s">
-        <v>42</v>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Kaká</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
       </c>
       <c r="F157" t="n">
         <v>444</v>
@@ -4507,21 +4922,27 @@
         <v>45.49</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
         <v>2007</v>
       </c>
-      <c r="C158" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" t="s">
-        <v>147</v>
-      </c>
-      <c r="E158" t="s">
-        <v>17</v>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F158" t="n">
         <v>277</v>
@@ -4530,21 +4951,27 @@
         <v>28.38</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
         <v>2007</v>
       </c>
-      <c r="C159" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" t="s">
-        <v>148</v>
-      </c>
-      <c r="E159" t="s">
-        <v>25</v>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F159" t="n">
         <v>255</v>
@@ -4553,21 +4980,27 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
         <v>2008</v>
       </c>
-      <c r="C160" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" t="s">
-        <v>147</v>
-      </c>
-      <c r="E160" t="s">
-        <v>17</v>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
       </c>
       <c r="F160" t="n">
         <v>446</v>
@@ -4576,21 +5009,27 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
         <v>2008</v>
       </c>
-      <c r="C161" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" t="s">
-        <v>148</v>
-      </c>
-      <c r="E161" t="s">
-        <v>25</v>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F161" t="n">
         <v>281</v>
@@ -4599,21 +5038,27 @@
         <v>31.02</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
         <v>2008</v>
       </c>
-      <c r="C162" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" t="s">
-        <v>149</v>
-      </c>
-      <c r="E162" t="s">
-        <v>91</v>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Fernando Torres</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
       </c>
       <c r="F162" t="n">
         <v>179</v>
@@ -4622,21 +5067,27 @@
         <v>19.76</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
         <v>2009</v>
       </c>
-      <c r="C163" t="s">
-        <v>6</v>
-      </c>
-      <c r="D163" t="s">
-        <v>148</v>
-      </c>
-      <c r="E163" t="s">
-        <v>25</v>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F163" t="n">
         <v>473</v>
@@ -4645,21 +5096,27 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
         <v>2009</v>
       </c>
-      <c r="C164" t="s">
-        <v>9</v>
-      </c>
-      <c r="D164" t="s">
-        <v>147</v>
-      </c>
-      <c r="E164" t="s">
-        <v>11</v>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F164" t="n">
         <v>233</v>
@@ -4668,21 +5125,27 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
         <v>2009</v>
       </c>
-      <c r="C165" t="s">
-        <v>12</v>
-      </c>
-      <c r="D165" t="s">
-        <v>150</v>
-      </c>
-      <c r="E165" t="s">
-        <v>25</v>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Xavi</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F165" t="n">
         <v>170</v>
@@ -4691,399 +5154,549 @@
         <v>19.41</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
         <v>2010</v>
       </c>
-      <c r="C166" t="s">
-        <v>6</v>
-      </c>
-      <c r="D166" t="s">
-        <v>148</v>
-      </c>
-      <c r="E166" t="s">
-        <v>25</v>
-      </c>
-      <c r="F166" t="s"/>
-      <c r="G166" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
         <v>2010</v>
       </c>
-      <c r="C167" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" t="s">
-        <v>152</v>
-      </c>
-      <c r="E167" t="s">
-        <v>25</v>
-      </c>
-      <c r="F167" t="s"/>
-      <c r="G167" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Andrés Iniesta</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
         <v>2010</v>
       </c>
-      <c r="C168" t="s">
-        <v>12</v>
-      </c>
-      <c r="D168" t="s">
-        <v>150</v>
-      </c>
-      <c r="E168" t="s">
-        <v>25</v>
-      </c>
-      <c r="F168" t="s"/>
-      <c r="G168" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Xavi</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>16.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
         <v>2011</v>
       </c>
-      <c r="C169" t="s">
-        <v>6</v>
-      </c>
-      <c r="D169" t="s">
-        <v>148</v>
-      </c>
-      <c r="E169" t="s">
-        <v>25</v>
-      </c>
-      <c r="F169" t="s"/>
-      <c r="G169" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
         <v>2011</v>
       </c>
-      <c r="C170" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" t="s">
-        <v>147</v>
-      </c>
-      <c r="E170" t="s">
-        <v>11</v>
-      </c>
-      <c r="F170" t="s"/>
-      <c r="G170" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
         <v>2011</v>
       </c>
-      <c r="C171" t="s">
-        <v>12</v>
-      </c>
-      <c r="D171" t="s">
-        <v>150</v>
-      </c>
-      <c r="E171" t="s">
-        <v>25</v>
-      </c>
-      <c r="F171" t="s"/>
-      <c r="G171" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Xavi</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
         <v>2012</v>
       </c>
-      <c r="C172" t="s">
-        <v>6</v>
-      </c>
-      <c r="D172" t="s">
-        <v>148</v>
-      </c>
-      <c r="E172" t="s">
-        <v>25</v>
-      </c>
-      <c r="F172" t="s"/>
-      <c r="G172" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>41.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
         <v>2012</v>
       </c>
-      <c r="C173" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" t="s">
-        <v>147</v>
-      </c>
-      <c r="E173" t="s">
-        <v>11</v>
-      </c>
-      <c r="F173" t="s"/>
-      <c r="G173" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
         <v>2012</v>
       </c>
-      <c r="C174" t="s">
-        <v>12</v>
-      </c>
-      <c r="D174" t="s">
-        <v>152</v>
-      </c>
-      <c r="E174" t="s">
-        <v>25</v>
-      </c>
-      <c r="F174" t="s"/>
-      <c r="G174" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Andrés Iniesta</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>10.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
         <v>2013</v>
       </c>
-      <c r="C175" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" t="s">
-        <v>147</v>
-      </c>
-      <c r="E175" t="s">
-        <v>11</v>
-      </c>
-      <c r="F175" t="s"/>
-      <c r="G175" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>27.99</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
         <v>2013</v>
       </c>
-      <c r="C176" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" t="s">
-        <v>148</v>
-      </c>
-      <c r="E176" t="s">
-        <v>25</v>
-      </c>
-      <c r="F176" t="s"/>
-      <c r="G176" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
         <v>2013</v>
       </c>
-      <c r="C177" t="s">
-        <v>12</v>
-      </c>
-      <c r="D177" t="s">
-        <v>163</v>
-      </c>
-      <c r="E177" t="s">
-        <v>50</v>
-      </c>
-      <c r="F177" t="s"/>
-      <c r="G177" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Franck Ribéry</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
         <v>2014</v>
       </c>
-      <c r="C178" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" t="s">
-        <v>147</v>
-      </c>
-      <c r="E178" t="s">
-        <v>11</v>
-      </c>
-      <c r="F178" t="s"/>
-      <c r="G178" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>37.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
         <v>2014</v>
       </c>
-      <c r="C179" t="s">
-        <v>9</v>
-      </c>
-      <c r="D179" t="s">
-        <v>148</v>
-      </c>
-      <c r="E179" t="s">
-        <v>25</v>
-      </c>
-      <c r="F179" t="s"/>
-      <c r="G179" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>15.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
         <v>2014</v>
       </c>
-      <c r="C180" t="s">
-        <v>12</v>
-      </c>
-      <c r="D180" t="s">
-        <v>167</v>
-      </c>
-      <c r="E180" t="s">
-        <v>50</v>
-      </c>
-      <c r="F180" t="s"/>
-      <c r="G180" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Manuel Neuer</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
         <v>2015</v>
       </c>
-      <c r="C181" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181" t="s">
-        <v>148</v>
-      </c>
-      <c r="E181" t="s">
-        <v>25</v>
-      </c>
-      <c r="F181" t="s"/>
-      <c r="G181" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>41.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
         <v>2015</v>
       </c>
-      <c r="C182" t="s">
-        <v>9</v>
-      </c>
-      <c r="D182" t="s">
-        <v>147</v>
-      </c>
-      <c r="E182" t="s">
-        <v>11</v>
-      </c>
-      <c r="F182" t="s"/>
-      <c r="G182" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>27.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
         <v>2015</v>
       </c>
-      <c r="C183" t="s">
-        <v>12</v>
-      </c>
-      <c r="D183" t="s">
-        <v>171</v>
-      </c>
-      <c r="E183" t="s">
-        <v>25</v>
-      </c>
-      <c r="F183" t="s"/>
-      <c r="G183" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Neymar</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
         <v>2016</v>
       </c>
-      <c r="C184" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" t="s">
-        <v>147</v>
-      </c>
-      <c r="E184" t="s">
-        <v>11</v>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F184" t="n">
         <v>745</v>
@@ -5092,21 +5705,27 @@
         <v>59.17</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
         <v>2016</v>
       </c>
-      <c r="C185" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" t="s">
-        <v>148</v>
-      </c>
-      <c r="E185" t="s">
-        <v>25</v>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F185" t="n">
         <v>316</v>
@@ -5115,21 +5734,27 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
         <v>2016</v>
       </c>
-      <c r="C186" t="s">
-        <v>12</v>
-      </c>
-      <c r="D186" t="s">
-        <v>173</v>
-      </c>
-      <c r="E186" t="s">
-        <v>101</v>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Antoine Griezmann</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
       </c>
       <c r="F186" t="n">
         <v>198</v>
@@ -5138,21 +5763,27 @@
         <v>15.73</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="n">
         <v>2017</v>
       </c>
-      <c r="C187" t="s">
-        <v>6</v>
-      </c>
-      <c r="D187" t="s">
-        <v>147</v>
-      </c>
-      <c r="E187" t="s">
-        <v>11</v>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F187" t="n">
         <v>946</v>
@@ -5161,21 +5792,27 @@
         <v>47.85</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="n">
         <v>2017</v>
       </c>
-      <c r="C188" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" t="s">
-        <v>148</v>
-      </c>
-      <c r="E188" t="s">
-        <v>25</v>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
       </c>
       <c r="F188" t="n">
         <v>670</v>
@@ -5184,21 +5821,27 @@
         <v>33.89</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="n">
         <v>2017</v>
       </c>
-      <c r="C189" t="s">
-        <v>12</v>
-      </c>
-      <c r="D189" t="s">
-        <v>171</v>
-      </c>
-      <c r="E189" t="s">
-        <v>174</v>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Neymar</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Paris Saint-Germain</t>
+        </is>
       </c>
       <c r="F189" t="n">
         <v>361</v>
@@ -5207,21 +5850,27 @@
         <v>18.26</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="n">
         <v>2018</v>
       </c>
-      <c r="C190" t="s">
-        <v>6</v>
-      </c>
-      <c r="D190" t="s">
-        <v>175</v>
-      </c>
-      <c r="E190" t="s">
-        <v>11</v>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Luka Modrić</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
       </c>
       <c r="F190" t="n">
         <v>753</v>
@@ -5230,21 +5879,27 @@
         <v>45.83</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="n">
         <v>2018</v>
       </c>
-      <c r="C191" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" t="s">
-        <v>147</v>
-      </c>
-      <c r="E191" t="s">
-        <v>23</v>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
       </c>
       <c r="F191" t="n">
         <v>476</v>
@@ -5253,27 +5908,120 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="n">
         <v>2018</v>
       </c>
-      <c r="C192" t="s">
-        <v>12</v>
-      </c>
-      <c r="D192" t="s">
-        <v>173</v>
-      </c>
-      <c r="E192" t="s">
-        <v>101</v>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Antoine Griezmann</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Atlético Madrid</t>
+        </is>
       </c>
       <c r="F192" t="n">
         <v>414</v>
       </c>
       <c r="G192" t="n">
         <v>25.2</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1st</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>686</v>
+      </c>
+      <c r="G193" t="n">
+        <v>37.26</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2nd</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Virgil van Dijk</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>679</v>
+      </c>
+      <c r="G194" t="n">
+        <v>36.88</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>3rd</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Cristiano Ronaldo</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>476</v>
+      </c>
+      <c r="G195" t="n">
+        <v>25.86</v>
       </c>
     </row>
   </sheetData>
